--- a/biology/Histoire de la zoologie et de la botanique/Antoine_Nicolas_Duchesne/Antoine_Nicolas_Duchesne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Antoine_Nicolas_Duchesne/Antoine_Nicolas_Duchesne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Nicolas Duchesne est un agronome français, né le 7 octobre 1747 à Versailles et mort le 18 février 1827.
 Il est le fils d’Antoine Duchesne, prévôt des bâtiments du château de Versailles. C'est là qu'il découvre la botanique et le jardinage et s'intéresse particulièrement aux fraisiers et réunit, dans le jardin botanique du Trianon, une importante collection. Il accompagne en Grande-Bretagne l’abbé Nolin (ou Nollin), directeur des pépinières du Roi.
@@ -514,7 +526,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(Liste partielle)
 Manuel de botanique, contenant les propriétés des plantes utiles (1764).
